--- a/src/assets/misReport.xlsx
+++ b/src/assets/misReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Assigned User</t>
   </si>
@@ -26,25 +26,22 @@
     <t>FirstName</t>
   </si>
   <si>
-    <t>praveen</t>
+    <t>Comments</t>
   </si>
   <si>
-    <t>6060774800</t>
+    <t>Call Duration</t>
   </si>
   <si>
-    <t>OCCUPIED</t>
+    <t>Call Start Date</t>
   </si>
   <si>
-    <t/>
+    <t>Call End Date</t>
   </si>
   <si>
-    <t>6060803033</t>
+    <t>Call Type</t>
   </si>
   <si>
-    <t>6062636549</t>
-  </si>
-  <si>
-    <t>6089372443</t>
+    <t>Recording</t>
   </si>
 </sst>
 </file>
@@ -52,13 +49,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,7 +84,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
@@ -108,75 +112,23 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
